--- a/Отчет_4_сем/Сравнительная таблица_X5_Retail.xlsx
+++ b/Отчет_4_сем/Сравнительная таблица_X5_Retail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FavouritesFolders\Documents\GitHub\MastersDegree\Отчет_4_сем\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE441C69-8EF5-4C1D-9025-73C4519A69D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A63F4-A1BC-4157-B900-29E5FB69E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="C1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6">
         <v>3</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>3.2899999999999999E-2</v>
       </c>
       <c r="F7" s="9">
@@ -667,7 +667,7 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="F8" s="10">
@@ -681,7 +681,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:C1048576 E3:E8 B7:B8 E3:H3">
+  <conditionalFormatting sqref="B9:C1048576 B7:B8 E3:H3 E3:E8">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -780,7 +780,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B9:C1048576 E3:E8 B7:B8 E3:H3</xm:sqref>
+          <xm:sqref>B9:C1048576 B7:B8 E3:H3 E3:E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{928840F5-0667-466D-A40C-CEA5F432B971}">
